--- a/01-Excel/03-处理重复函数/视频操作文件/如何定位重复数据.xlsx
+++ b/01-Excel/03-处理重复函数/视频操作文件/如何定位重复数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/GitHub/data-analysis/01-Excel/03-处理重复函数/视频操作文件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5307961-313A-0945-BEA8-BC95A6513EBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EDE49F-0775-E04C-9B4A-2B40CAF7FF39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,7 +264,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -569,7 +579,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
